--- a/Sona Behavior scores.xlsx
+++ b/Sona Behavior scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27F85E-BDAA-40B0-9CCD-946EA5AFC8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06219BC-C4EE-483D-97B1-D0F898434138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{739E6F4F-1A64-4111-96FD-F355EB113363}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>subject Id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>overall score</t>
+  </si>
+  <si>
+    <t>160366(160153)</t>
   </si>
 </sst>
 </file>
@@ -409,14 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8450F5EB-0305-4C77-859F-F88CBF953E29}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="D15" sqref="D15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" customWidth="1"/>
@@ -712,6 +716,86 @@
         <v>82</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>160786</v>
+      </c>
+      <c r="B15">
+        <v>97.3333333333333</v>
+      </c>
+      <c r="C15">
+        <v>96</v>
+      </c>
+      <c r="D15">
+        <v>89.3333333333333</v>
+      </c>
+      <c r="E15">
+        <v>70.6666666666666</v>
+      </c>
+      <c r="H15">
+        <v>88.3333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>161134</v>
+      </c>
+      <c r="B16">
+        <v>90.6666666666666</v>
+      </c>
+      <c r="C16">
+        <v>97.3333333333333</v>
+      </c>
+      <c r="D16">
+        <v>74.6666666666666</v>
+      </c>
+      <c r="E16">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="H16">
+        <v>79.6666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="C17">
+        <v>85.3333333333333</v>
+      </c>
+      <c r="D17">
+        <v>37.3333333333333</v>
+      </c>
+      <c r="E17">
+        <v>41.3333333333333</v>
+      </c>
+      <c r="H17">
+        <v>59.3333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>159763</v>
+      </c>
+      <c r="B18">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="D18">
+        <v>82.6666666666666</v>
+      </c>
+      <c r="E18">
+        <v>81.3333333333333</v>
+      </c>
+      <c r="H18">
+        <v>88.3333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sona Behavior scores.xlsx
+++ b/Sona Behavior scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06219BC-C4EE-483D-97B1-D0F898434138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1536A-9B76-411A-BF69-250EAD89DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{739E6F4F-1A64-4111-96FD-F355EB113363}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +73,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA709F5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8450F5EB-0305-4C77-859F-F88CBF953E29}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D18"/>
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,6 +805,66 @@
         <v>88.3333333333333</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>161278</v>
+      </c>
+      <c r="B19">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>77.3333333333333</v>
+      </c>
+      <c r="E19">
+        <v>65.3333333333333</v>
+      </c>
+      <c r="H19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>160009</v>
+      </c>
+      <c r="B20">
+        <v>78.6666666666666</v>
+      </c>
+      <c r="C20">
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>45.3333333333333</v>
+      </c>
+      <c r="E20">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="H20">
+        <v>61.3333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>160948</v>
+      </c>
+      <c r="B21">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="C21">
+        <v>92</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="H21">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sona Behavior scores.xlsx
+++ b/Sona Behavior scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1536A-9B76-411A-BF69-250EAD89DC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA49496D-7761-442F-912D-FA5763F1F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{739E6F4F-1A64-4111-96FD-F355EB113363}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{739E6F4F-1A64-4111-96FD-F355EB113363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>subject Id</t>
   </si>
@@ -42,16 +42,7 @@
     <t>mismatched left</t>
   </si>
   <si>
-    <t>Matched_avg</t>
-  </si>
-  <si>
-    <t>Mismatched_avg</t>
-  </si>
-  <si>
     <t>overall score</t>
-  </si>
-  <si>
-    <t>160366(160153)</t>
   </si>
 </sst>
 </file>
@@ -421,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8450F5EB-0305-4C77-859F-F88CBF953E29}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +430,7 @@
     <col min="8" max="8" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,14 +449,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>156973</v>
       </c>
@@ -481,11 +467,11 @@
       <c r="E2">
         <v>77.3333333333333</v>
       </c>
-      <c r="H2">
+      <c r="F2">
         <v>87.3333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>159058</v>
       </c>
@@ -501,11 +487,11 @@
       <c r="E3">
         <v>77.3333333333333</v>
       </c>
-      <c r="H3">
+      <c r="F3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>156028</v>
       </c>
@@ -521,11 +507,11 @@
       <c r="E4">
         <v>92</v>
       </c>
-      <c r="H4">
+      <c r="F4">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>157144</v>
       </c>
@@ -541,11 +527,11 @@
       <c r="E5">
         <v>76</v>
       </c>
-      <c r="H5">
+      <c r="F5">
         <v>82.3333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>157837</v>
       </c>
@@ -561,11 +547,11 @@
       <c r="E6">
         <v>94.6666666666666</v>
       </c>
-      <c r="H6">
+      <c r="F6">
         <v>92.6666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>160171</v>
       </c>
@@ -581,11 +567,11 @@
       <c r="E7">
         <v>74.6666666666666</v>
       </c>
-      <c r="H7">
+      <c r="F7">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>160093</v>
       </c>
@@ -601,11 +587,11 @@
       <c r="E8">
         <v>78.6666666666666</v>
       </c>
-      <c r="H8">
+      <c r="F8">
         <v>90.3333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>160891</v>
       </c>
@@ -621,11 +607,11 @@
       <c r="E9">
         <v>90.6666666666666</v>
       </c>
-      <c r="H9">
+      <c r="F9">
         <v>89.6666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>160927</v>
       </c>
@@ -641,11 +627,11 @@
       <c r="E10">
         <v>69.3333333333333</v>
       </c>
-      <c r="H10">
+      <c r="F10">
         <v>86.999999999999901</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>160228</v>
       </c>
@@ -661,11 +647,11 @@
       <c r="E11">
         <v>54.6666666666666</v>
       </c>
-      <c r="H11">
+      <c r="F11">
         <v>80.3333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>160090</v>
       </c>
@@ -681,11 +667,11 @@
       <c r="E12">
         <v>81.3333333333333</v>
       </c>
-      <c r="H12">
+      <c r="F12">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>160045</v>
       </c>
@@ -701,11 +687,11 @@
       <c r="E13">
         <v>64</v>
       </c>
-      <c r="H13">
+      <c r="F13">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>160339</v>
       </c>
@@ -721,11 +707,11 @@
       <c r="E14">
         <v>78.6666666666666</v>
       </c>
-      <c r="H14">
+      <c r="F14">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>160786</v>
       </c>
@@ -741,11 +727,11 @@
       <c r="E15">
         <v>70.6666666666666</v>
       </c>
-      <c r="H15">
+      <c r="F15">
         <v>88.3333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>161134</v>
       </c>
@@ -761,13 +747,13 @@
       <c r="E16">
         <v>55.999999999999901</v>
       </c>
-      <c r="H16">
+      <c r="F16">
         <v>79.6666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>160366</v>
       </c>
       <c r="B17">
         <v>73.3333333333333</v>
@@ -781,11 +767,11 @@
       <c r="E17">
         <v>41.3333333333333</v>
       </c>
-      <c r="H17">
+      <c r="F17">
         <v>59.3333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>159763</v>
       </c>
@@ -801,11 +787,11 @@
       <c r="E18">
         <v>81.3333333333333</v>
       </c>
-      <c r="H18">
+      <c r="F18">
         <v>88.3333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>161278</v>
       </c>
@@ -821,11 +807,11 @@
       <c r="E19">
         <v>65.3333333333333</v>
       </c>
-      <c r="H19">
+      <c r="F19">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>160009</v>
       </c>
@@ -841,11 +827,11 @@
       <c r="E20">
         <v>33.3333333333333</v>
       </c>
-      <c r="H20">
+      <c r="F20">
         <v>61.3333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>160948</v>
       </c>
@@ -861,8 +847,88 @@
       <c r="E21">
         <v>66.6666666666666</v>
       </c>
-      <c r="H21">
+      <c r="F21">
         <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>160237</v>
+      </c>
+      <c r="B22">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>90.6666666666666</v>
+      </c>
+      <c r="D22">
+        <v>82.6666666666666</v>
+      </c>
+      <c r="E22">
+        <v>89.3333333333333</v>
+      </c>
+      <c r="F22">
+        <v>89.6666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>160240</v>
+      </c>
+      <c r="B23">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="D23">
+        <v>42.6666666666666</v>
+      </c>
+      <c r="E23">
+        <v>34.6666666666666</v>
+      </c>
+      <c r="F23">
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>161521</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>77.3333333333333</v>
+      </c>
+      <c r="E24">
+        <v>84</v>
+      </c>
+      <c r="F24">
+        <v>87.3333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>160195</v>
+      </c>
+      <c r="B25">
+        <v>97.3333333333333</v>
+      </c>
+      <c r="C25">
+        <v>90.6666666666666</v>
+      </c>
+      <c r="D25">
+        <v>57.3333333333333</v>
+      </c>
+      <c r="E25">
+        <v>84</v>
+      </c>
+      <c r="F25">
+        <v>82.3333333333333</v>
       </c>
     </row>
   </sheetData>
